--- a/resources/Final Results/FirstGuess-Results.xlsx
+++ b/resources/Final Results/FirstGuess-Results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deard\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deard\Documents\Diss\Minesweeper-Assistant\resources\Final Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90290FAA-742D-4B9E-96D9-A9D58CF0F5AD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBA866F-4FDB-49B4-B763-23333F843B3C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5BEA2355-FD2A-4A91-A407-782DEC419AB2}"/>
+    <workbookView xWindow="12588" yWindow="2316" windowWidth="8676" windowHeight="8964" xr2:uid="{5BEA2355-FD2A-4A91-A407-782DEC419AB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0000%"/>
+    <numFmt numFmtId="164" formatCode="0.0000%"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -98,10 +98,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -140,12 +140,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -154,7 +151,24 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Opening Moves Comparison</a:t>
+              <a:t>First Guess Opening Chance</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Predicted Results</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Comparison</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -172,12 +186,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx2"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -210,9 +221,32 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -275,9 +309,32 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -340,9 +397,32 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -391,7 +471,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -399,8 +478,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
         <c:axId val="262256831"/>
         <c:axId val="388198159"/>
       </c:barChart>
@@ -411,7 +490,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -419,7 +498,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
+              <a:schemeClr val="tx2">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -435,10 +514,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -466,7 +542,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="tx2">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
@@ -483,12 +559,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx2"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -497,16 +570,19 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Chance of Revealing</a:t>
+                  <a:t>Chance of Revealing an Opening (%)</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> an Opening (%)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-GB"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="6.6666666666666666E-2"/>
+              <c:y val="0.13402801551979915"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -520,12 +596,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx2"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -536,7 +609,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.0000%" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -554,10 +627,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -575,17 +645,16 @@
         <c:showHorzBorder val="1"/>
         <c:showVertBorder val="1"/>
         <c:showOutline val="1"/>
-        <c:showKeys val="1"/>
+        <c:showKeys val="0"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525">
             <a:solidFill>
-              <a:schemeClr val="tx1">
+              <a:schemeClr val="tx2">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -596,10 +665,7 @@
             <a:pPr rtl="0">
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -635,10 +701,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx2"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -659,7 +722,630 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>First Guess Opening Chance</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Observed Results Comparison</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BEGINNER</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Corner</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Edge</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Centre</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$11:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.66678800000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.53962900000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32570399999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AEEC-4D6A-B17A-EC46C7FC6067}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>INTERMEDIATE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Corner</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Edge</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Centre</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$12:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.59832300000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.44447799999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.249915</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AEEC-4D6A-B17A-EC46C7FC6067}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EXPERT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Corner</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Edge</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Centre</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$13:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.49864599999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32892100000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15432199999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AEEC-4D6A-B17A-EC46C7FC6067}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="262256831"/>
+        <c:axId val="388198159"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="262256831"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="388198159"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="388198159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.70000000000000007"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Chance of Revealing an Opening (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="6.6666666666666666E-2"/>
+              <c:y val="0.13402801551979915"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="262256831"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="0"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -726,34 +1412,68 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -768,7 +1488,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -776,7 +1496,7 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -784,17 +1504,14 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
@@ -803,9 +1520,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -828,35 +1544,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -865,33 +1581,32 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -907,21 +1622,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -955,64 +1665,157 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -1020,102 +1823,6 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1123,17 +1830,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -1142,12 +1849,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1156,14 +1860,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1172,10 +1876,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
@@ -1184,7 +1885,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1205,10 +1906,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
@@ -1217,14 +1915,477 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
       <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1234,15 +2395,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>289560</xdr:colOff>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1262,6 +2423,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{652B55D6-7660-431D-B0A7-AD97A4C5E81E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1569,8 +2768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36ACA77B-069B-4599-A790-C2BFB1452F1E}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1580,11 +2779,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -1604,13 +2803,13 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>0.66626099999999999</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>0.50345300000000004</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>0.32566899999999999</v>
       </c>
     </row>
@@ -1618,13 +2817,13 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>0.59804999999999997</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>0.42294300000000001</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>0.25010300000000002</v>
       </c>
     </row>
@@ -1632,22 +2831,22 @@
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>0.49846299999999999</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>0.31250800000000001</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>0.15448700000000001</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -1667,13 +2866,13 @@
       <c r="A11" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>0.66678800000000005</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>0.53962900000000003</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>0.32570399999999999</v>
       </c>
     </row>
@@ -1681,13 +2880,13 @@
       <c r="A12" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>0.59832300000000005</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>0.44447799999999998</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>0.249915</v>
       </c>
     </row>
@@ -1695,13 +2894,13 @@
       <c r="A13" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>0.49864599999999998</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>0.32892100000000002</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>0.15432199999999999</v>
       </c>
     </row>

--- a/resources/Final Results/FirstGuess-Results.xlsx
+++ b/resources/Final Results/FirstGuess-Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deard\Documents\Diss\Minesweeper-Assistant\resources\Final Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBA866F-4FDB-49B4-B763-23333F843B3C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F96D148-EDF2-4092-B458-9B68CF200225}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12588" yWindow="2316" windowWidth="8676" windowHeight="8964" xr2:uid="{5BEA2355-FD2A-4A91-A407-782DEC419AB2}"/>
   </bookViews>
@@ -902,7 +902,7 @@
                   <c:v>0.66678800000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.53962900000000003</c:v>
+                  <c:v>0.50314499999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.32570399999999999</c:v>
@@ -990,7 +990,7 @@
                   <c:v>0.59832300000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.44447799999999998</c:v>
+                  <c:v>0.42375699999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.249915</c:v>
@@ -1078,7 +1078,7 @@
                   <c:v>0.49864599999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.32892100000000002</c:v>
+                  <c:v>0.31222</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.15432199999999999</c:v>
@@ -2768,8 +2768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36ACA77B-069B-4599-A790-C2BFB1452F1E}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2870,7 +2870,7 @@
         <v>0.66678800000000005</v>
       </c>
       <c r="C11" s="1">
-        <v>0.53962900000000003</v>
+        <v>0.50314499999999995</v>
       </c>
       <c r="D11" s="1">
         <v>0.32570399999999999</v>
@@ -2884,7 +2884,7 @@
         <v>0.59832300000000005</v>
       </c>
       <c r="C12" s="1">
-        <v>0.44447799999999998</v>
+        <v>0.42375699999999999</v>
       </c>
       <c r="D12" s="1">
         <v>0.249915</v>
@@ -2898,7 +2898,7 @@
         <v>0.49864599999999998</v>
       </c>
       <c r="C13" s="1">
-        <v>0.32892100000000002</v>
+        <v>0.31222</v>
       </c>
       <c r="D13" s="1">
         <v>0.15432199999999999</v>
